--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.8308444316604</v>
+        <v>205.3163279053171</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.2179979021331</v>
+        <v>280.9228577570367</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.3501749445165</v>
+        <v>254.1119744904948</v>
       </c>
       <c r="AD2" t="n">
-        <v>136830.8444316604</v>
+        <v>205316.3279053171</v>
       </c>
       <c r="AE2" t="n">
-        <v>187217.9979021331</v>
+        <v>280922.8577570367</v>
       </c>
       <c r="AF2" t="n">
         <v>1.245168441637044e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>169350.1749445165</v>
+        <v>254111.9744904948</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.8861267122022</v>
+        <v>192.9021018051457</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.557149323481</v>
+        <v>263.9371659297883</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.9432740196857</v>
+        <v>238.7473732516653</v>
       </c>
       <c r="AD2" t="n">
-        <v>134886.1267122022</v>
+        <v>192902.1018051457</v>
       </c>
       <c r="AE2" t="n">
-        <v>184557.149323481</v>
+        <v>263937.1659297883</v>
       </c>
       <c r="AF2" t="n">
         <v>1.390938758067144e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>166943.2740196857</v>
+        <v>238747.3732516653</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.9854906740505</v>
+        <v>196.0852267234852</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.5343240641388</v>
+        <v>268.2924578726186</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.2545569956237</v>
+        <v>242.6870022441639</v>
       </c>
       <c r="AD2" t="n">
-        <v>139985.4906740505</v>
+        <v>196085.2267234852</v>
       </c>
       <c r="AE2" t="n">
-        <v>191534.3240641388</v>
+        <v>268292.4578726186</v>
       </c>
       <c r="AF2" t="n">
         <v>1.839084303342628e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>173254.5569956237</v>
+        <v>242687.0022441639</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.8871068133228</v>
+        <v>188.7152077764909</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.4537579904161</v>
+        <v>258.2084728070575</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.2315045963014</v>
+        <v>233.5654185602949</v>
       </c>
       <c r="AD2" t="n">
-        <v>131887.1068133228</v>
+        <v>188715.2077764909</v>
       </c>
       <c r="AE2" t="n">
-        <v>180453.7579904161</v>
+        <v>258208.4728070576</v>
       </c>
       <c r="AF2" t="n">
         <v>1.674326463345555e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.39583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>163231.5045963014</v>
+        <v>233565.4185602949</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.4155423622401</v>
+        <v>213.106924892775</v>
       </c>
       <c r="AB2" t="n">
-        <v>203.0686926915467</v>
+        <v>291.5822962521534</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.6881016698234</v>
+        <v>263.7540911362569</v>
       </c>
       <c r="AD2" t="n">
-        <v>148415.5423622401</v>
+        <v>213106.924892775</v>
       </c>
       <c r="AE2" t="n">
-        <v>203068.6926915467</v>
+        <v>291582.2962521533</v>
       </c>
       <c r="AF2" t="n">
         <v>1.957579165297126e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.03645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>183688.1016698234</v>
+        <v>263754.0911362569</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.4415218992025</v>
+        <v>193.627774284458</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.3170655206408</v>
+        <v>264.9300630303931</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.6306648815379</v>
+        <v>239.6455096465286</v>
       </c>
       <c r="AD2" t="n">
-        <v>135441.5218992025</v>
+        <v>193627.774284458</v>
       </c>
       <c r="AE2" t="n">
-        <v>185317.0655206408</v>
+        <v>264930.063030393</v>
       </c>
       <c r="AF2" t="n">
         <v>1.347233815770741e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>167630.6648815379</v>
+        <v>239645.5096465285</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.4325997741638</v>
+        <v>221.7260739271388</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.4062284470319</v>
+        <v>303.3753962109827</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.8481603286492</v>
+        <v>274.421674186739</v>
       </c>
       <c r="AD2" t="n">
-        <v>157432.5997741638</v>
+        <v>221726.0739271388</v>
       </c>
       <c r="AE2" t="n">
-        <v>215406.2284470318</v>
+        <v>303375.3962109827</v>
       </c>
       <c r="AF2" t="n">
         <v>1.998656857672073e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.02604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>194848.1603286492</v>
+        <v>274421.674186739</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.4711296472454</v>
+        <v>190.9344725410985</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.6210879139433</v>
+        <v>261.2449687650435</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.1919875937944</v>
+        <v>236.3121156058005</v>
       </c>
       <c r="AD2" t="n">
-        <v>133471.1296472454</v>
+        <v>190934.4725410985</v>
       </c>
       <c r="AE2" t="n">
-        <v>182621.0879139433</v>
+        <v>261244.9687650435</v>
       </c>
       <c r="AF2" t="n">
         <v>1.514942941834731e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.31770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>165191.9875937944</v>
+        <v>236312.1156058005</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.3816733198503</v>
+        <v>192.2208961127248</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.8669339371525</v>
+        <v>263.0051102487443</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.3189318211048</v>
+        <v>237.9042716566715</v>
       </c>
       <c r="AD2" t="n">
-        <v>134381.6733198503</v>
+        <v>192220.8961127248</v>
       </c>
       <c r="AE2" t="n">
-        <v>183866.9339371525</v>
+        <v>263005.1102487443</v>
       </c>
       <c r="AF2" t="n">
         <v>1.435110182999226e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>166318.9318211048</v>
+        <v>237904.2716566715</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.8242786257682</v>
+        <v>194.3339686786902</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.8407701599627</v>
+        <v>265.896309355679</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.1043878851073</v>
+        <v>240.5195387786648</v>
       </c>
       <c r="AD2" t="n">
-        <v>135824.2786257682</v>
+        <v>194333.9686786902</v>
       </c>
       <c r="AE2" t="n">
-        <v>185840.7701599627</v>
+        <v>265896.309355679</v>
       </c>
       <c r="AF2" t="n">
         <v>1.302210298999431e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>168104.3878851073</v>
+        <v>240519.5387786647</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.40792027143</v>
+        <v>189.4590523989612</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.1663579404662</v>
+        <v>259.2262338356295</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.8760950072591</v>
+        <v>234.4860459047368</v>
       </c>
       <c r="AD2" t="n">
-        <v>132407.92027143</v>
+        <v>189459.0523989612</v>
       </c>
       <c r="AE2" t="n">
-        <v>181166.3579404661</v>
+        <v>259226.2338356295</v>
       </c>
       <c r="AF2" t="n">
         <v>1.619777194240848e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>163876.0950072591</v>
+        <v>234486.0459047368</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.9138946264793</v>
+        <v>196.6862627882253</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.122166141286</v>
+        <v>269.1148219322353</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.0269980043509</v>
+        <v>243.4308810321263</v>
       </c>
       <c r="AD2" t="n">
-        <v>130913.8946264793</v>
+        <v>196686.2627882253</v>
       </c>
       <c r="AE2" t="n">
-        <v>179122.166141286</v>
+        <v>269114.8219322353</v>
       </c>
       <c r="AF2" t="n">
         <v>1.787897000240625e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>162026.9980043509</v>
+        <v>243430.8810321263</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.5485079157897</v>
+        <v>204.5887946128697</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.9364249759681</v>
+        <v>279.927414609807</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.713720557271</v>
+        <v>253.2115350401232</v>
       </c>
       <c r="AD2" t="n">
-        <v>139548.5079157897</v>
+        <v>204588.7946128697</v>
       </c>
       <c r="AE2" t="n">
-        <v>190936.4249759681</v>
+        <v>279927.414609807</v>
       </c>
       <c r="AF2" t="n">
         <v>1.892880109754674e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.46354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>172713.720557271</v>
+        <v>253211.5350401232</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.062239086509</v>
+        <v>248.970808315096</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.8961228358507</v>
+        <v>340.6528437534186</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.9053349722988</v>
+        <v>308.141414454963</v>
       </c>
       <c r="AD2" t="n">
-        <v>176062.239086509</v>
+        <v>248970.808315096</v>
       </c>
       <c r="AE2" t="n">
-        <v>240896.1228358507</v>
+        <v>340652.8437534185</v>
       </c>
       <c r="AF2" t="n">
         <v>1.984247093546574e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.00520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>217905.3349722988</v>
+        <v>308141.4144549629</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.9615250201801</v>
+        <v>191.6168163657781</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.2920684979092</v>
+        <v>262.1785816888546</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.798930732554</v>
+        <v>237.1566258224974</v>
       </c>
       <c r="AD2" t="n">
-        <v>133961.5250201802</v>
+        <v>191616.8163657781</v>
       </c>
       <c r="AE2" t="n">
-        <v>183292.0684979092</v>
+        <v>262178.5816888546</v>
       </c>
       <c r="AF2" t="n">
         <v>1.470494272606339e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.31770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>165798.930732554</v>
+        <v>237156.6258224974</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.927920497488</v>
+        <v>194.2785734475423</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.9825775412063</v>
+        <v>265.8205151565573</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.2326613689129</v>
+        <v>240.4509782715294</v>
       </c>
       <c r="AD2" t="n">
-        <v>135927.920497488</v>
+        <v>194278.5734475423</v>
       </c>
       <c r="AE2" t="n">
-        <v>185982.5775412063</v>
+        <v>265820.5151565574</v>
       </c>
       <c r="AF2" t="n">
         <v>1.309521985794142e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>168232.6613689129</v>
+        <v>240450.9782715294</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.9253963761365</v>
+        <v>313.2517593112478</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.7021650441016</v>
+        <v>428.6048767819262</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.7670812224476</v>
+        <v>387.6994288925811</v>
       </c>
       <c r="AD2" t="n">
-        <v>213925.3963761365</v>
+        <v>313251.7593112478</v>
       </c>
       <c r="AE2" t="n">
-        <v>292702.1650441016</v>
+        <v>428604.8767819263</v>
       </c>
       <c r="AF2" t="n">
         <v>1.847944108857788e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>264767.0812224476</v>
+        <v>387699.4288925811</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.4754377153005</v>
+        <v>197.5430273201205</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.8904941689434</v>
+        <v>270.2870849625572</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.7219978834041</v>
+        <v>244.4912649241162</v>
       </c>
       <c r="AD2" t="n">
-        <v>131475.4377153005</v>
+        <v>197543.0273201205</v>
       </c>
       <c r="AE2" t="n">
-        <v>179890.4941689434</v>
+        <v>270287.0849625572</v>
       </c>
       <c r="AF2" t="n">
         <v>1.721508410930638e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>162721.9978834041</v>
+        <v>244491.2649241162</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.9828125330563</v>
+        <v>190.2451804200842</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.9529508952794</v>
+        <v>260.30184887565</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.5876166344554</v>
+        <v>235.4590057549734</v>
       </c>
       <c r="AD2" t="n">
-        <v>132982.8125330563</v>
+        <v>190245.1804200842</v>
       </c>
       <c r="AE2" t="n">
-        <v>181952.9508952794</v>
+        <v>260301.84887565</v>
       </c>
       <c r="AF2" t="n">
         <v>1.560987601927267e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>164587.6166344554</v>
+        <v>235459.0057549734</v>
       </c>
     </row>
   </sheetData>
